--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F2DF8E-B727-4A2F-A254-BDF95D447472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6907DCC-CC7B-4564-8A2A-C39BD37E0266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Keyword</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Enter Text To delete Pca group Profile</t>
+  </si>
+  <si>
+    <t>Enter Text to delete GAAP fund grp profile</t>
+  </si>
+  <si>
+    <t>AutoTitleEdited</t>
+  </si>
+  <si>
+    <t>getData=Delete</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
 </sst>
 </file>
@@ -147,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -183,16 +195,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68ADD78-5E97-442A-9239-32BA9120CDAC}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -621,7 +645,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -648,21 +672,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155C1548-3305-4173-92A7-939CD1DB0F71}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -675,8 +699,11 @@
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -687,8 +714,9 @@
         <v>21</v>
       </c>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -699,6 +727,20 @@
         <v>52525</v>
       </c>
       <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6907DCC-CC7B-4564-8A2A-C39BD37E0266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D58CB8-0B1B-46C0-B7CF-17526150A983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Keyword</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>button_search</t>
   </si>
 </sst>
 </file>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68ADD78-5E97-442A-9239-32BA9120CDAC}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,10 +600,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -611,13 +614,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -625,13 +628,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -639,13 +642,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -653,17 +656,31 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -675,7 +692,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D58CB8-0B1B-46C0-B7CF-17526150A983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5093A00-214D-455E-9C50-BD27F720E8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Keyword</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>button_search</t>
+  </si>
+  <si>
+    <t>Enter Text to delete Comptroller Source/Group Profile</t>
   </si>
 </sst>
 </file>
@@ -536,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68ADD78-5E97-442A-9239-32BA9120CDAC}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -689,10 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155C1548-3305-4173-92A7-939CD1DB0F71}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -759,6 +762,19 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3243</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
